--- a/EXCEL/usuarios.xlsx
+++ b/EXCEL/usuarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JorgeTerrones\Documents\GitHub\BRANCH\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69D88C0-A21C-4733-9A83-B9F3908B71DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AE3932-429D-4A15-B588-FA5A4650AB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/EXCEL/usuarios.xlsx
+++ b/EXCEL/usuarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JorgeTerrones\Documents\GitHub\BRANCH\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AE3932-429D-4A15-B588-FA5A4650AB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C4B058-0A49-4850-AF82-201918FDC874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>NEW_USER_CODE</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>NEW_USER_SUCURSAL</t>
+  </si>
+  <si>
+    <t>NEW_USER_COUNTER_ROL</t>
   </si>
 </sst>
 </file>
@@ -391,44 +394,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A2" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F7" s="4"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EXCEL/usuarios.xlsx
+++ b/EXCEL/usuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JorgeTerrones\Documents\GitHub\BRANCH\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C4B058-0A49-4850-AF82-201918FDC874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2035FC1-1F04-4D31-9F6D-423F716C1198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>NEW_USER_CODE</t>
   </si>
@@ -46,13 +46,82 @@
   </si>
   <si>
     <t>NEW_USER_COUNTER_ROL</t>
+  </si>
+  <si>
+    <t>ZONAL BOLOGNESI</t>
+  </si>
+  <si>
+    <t>COUNTER</t>
+  </si>
+  <si>
+    <t>CAJA</t>
+  </si>
+  <si>
+    <t>z_bolog_venta_puerta_1</t>
+  </si>
+  <si>
+    <t>z_bolog_venta_puerta_2</t>
+  </si>
+  <si>
+    <t>z_bolog_venta_puerta_3</t>
+  </si>
+  <si>
+    <t>z_bolog_venta_puerta_4</t>
+  </si>
+  <si>
+    <t>z_bolog_venta_puerta_5</t>
+  </si>
+  <si>
+    <t>z_bolog_venta_puerta_6</t>
+  </si>
+  <si>
+    <t>z_bolog_venta_puerta_7</t>
+  </si>
+  <si>
+    <t>z_bolog_venta_puerta_8</t>
+  </si>
+  <si>
+    <t>z_bolog_venta_puerta_9</t>
+  </si>
+  <si>
+    <t>z_bolog_venta_puerta_10</t>
+  </si>
+  <si>
+    <t>z_bolog_venta_puerta_1@grupollamagas.pe</t>
+  </si>
+  <si>
+    <t>z_bolog_venta_puerta_2@grupollamagas.pe</t>
+  </si>
+  <si>
+    <t>z_bolog_venta_puerta_3@grupollamagas.pe</t>
+  </si>
+  <si>
+    <t>z_bolog_venta_puerta_4@grupollamagas.pe</t>
+  </si>
+  <si>
+    <t>z_bolog_venta_puerta_5@grupollamagas.pe</t>
+  </si>
+  <si>
+    <t>z_bolog_venta_puerta_6@grupollamagas.pe</t>
+  </si>
+  <si>
+    <t>z_bolog_venta_puerta_7@grupollamagas.pe</t>
+  </si>
+  <si>
+    <t>z_bolog_venta_puerta_8@grupollamagas.pe</t>
+  </si>
+  <si>
+    <t>z_bolog_venta_puerta_9@grupollamagas.pe</t>
+  </si>
+  <si>
+    <t>z_bolog_venta_puerta_10@grupollamagas.pe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,7 +149,13 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,8 +178,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -113,9 +189,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,18 +471,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:G2"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.21875" bestFit="1" customWidth="1"/>
@@ -434,10 +510,251 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>1234</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1234</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>1234</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1234</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1234</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G7" s="4"/>
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1234</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1234</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>1234</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>1234</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>1234</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{8570A474-B8D0-4647-A785-CA1FB25543BA}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{8686409F-3B4E-407C-A5B0-360B54D7A38A}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{75030C26-DC18-453D-B9D7-97302365BC42}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{1319D117-BB54-41B5-85BD-96F7685887FF}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{A9FA907B-5A60-4DB0-8FDA-E22168148031}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{2025309A-F999-4A79-8EF5-E285F500E5F7}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{FD873500-34A7-45A2-9833-CB0820D743C7}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{28B90F7F-F4C1-4919-9ACE-74D0AB0A7497}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{8915D94A-003D-460E-AD4B-704E01C6CCC5}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{8A32DCC9-B646-4055-B534-F9C4090F9556}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>